--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xl2resx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AF16F-9437-421B-BE3F-06D59CBC8E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8632F0AF-1532-461C-B5B6-431A5994393B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>티3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ko-KR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>m1231231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rrrr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,12 +490,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -517,18 +517,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>44</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xl2resx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8632F0AF-1532-461C-B5B6-431A5994393B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C23F3C-8F80-49DA-8099-B7B30A376A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rrrr</t>
+    <t>그르르</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xl2resx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C23F3C-8F80-49DA-8099-B7B30A376A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771FDFC5-170E-4531-9626-0D35C96F096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그르르</t>
+    <t>q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,7 +534,7 @@
         <v>44</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771FDFC5-170E-4531-9626-0D35C96F096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B6D2A5-196F-4DD3-9FF8-44485985DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -534,7 +534,7 @@
         <v>44</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4444</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B6D2A5-196F-4DD3-9FF8-44485985DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3040B9-EE27-4106-A4C5-8155FD701122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q</t>
+    <t>s2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3040B9-EE27-4106-A4C5-8155FD701122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF57247-DA11-4D1B-ADBE-1C0B8D2EED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>티1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,7 +473,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,12 +486,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -506,29 +502,29 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C3">
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>44</v>
@@ -562,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF57247-DA11-4D1B-ADBE-1C0B8D2EED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F14F97-50A4-4985-B042-CA26256CF293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +477,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,8 +533,8 @@
       <c r="B5">
         <v>44</v>
       </c>
-      <c r="C5">
-        <v>4444</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F14F97-50A4-4985-B042-CA26256CF293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF60ABE-9F91-461F-A3FE-B38815B7CBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
   </si>
   <si>
     <t>m1231231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,7 +473,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,7 +530,7 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF60ABE-9F91-461F-A3FE-B38815B7CBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B63EE53-70F3-4345-AB41-E7E7A3A0B5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>티1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,7 +477,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,12 +490,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -502,35 +506,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>333</v>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B63EE53-70F3-4345-AB41-E7E7A3A0B5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1787E2D-C89C-45EB-B32A-051AA91367BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +481,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
